--- a/Silent Space Audio Asset List.xlsx
+++ b/Silent Space Audio Asset List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmii/Documents/GitHub/MetroidvaniaHorrorGame/Metroidvania Horror Unity Project Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C7401-387C-D048-8704-A83B75DD0070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB064F90-B605-944F-BB55-BF445A206BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="53180" yWindow="7700" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="164">
   <si>
     <t>Sound Effect Asset List</t>
   </si>
@@ -485,19 +485,52 @@
     <t>#</t>
   </si>
   <si>
-    <t>ui_select.wav</t>
-  </si>
-  <si>
-    <t>ui_back.wav</t>
-  </si>
-  <si>
-    <t>ui_pause.wav</t>
-  </si>
-  <si>
     <t>Gravity Room</t>
   </si>
   <si>
     <t>Base Ambience</t>
+  </si>
+  <si>
+    <t>sfx_ui_select.wav</t>
+  </si>
+  <si>
+    <t>sfx_ui_back.wav</t>
+  </si>
+  <si>
+    <t>sfx_ui_pause.wav</t>
+  </si>
+  <si>
+    <t>sfx_ambience_base</t>
+  </si>
+  <si>
+    <t>Safe Room</t>
+  </si>
+  <si>
+    <t>Boss Room</t>
+  </si>
+  <si>
+    <t>sfx_ambience_safe</t>
+  </si>
+  <si>
+    <t>sfx_ambience_gravity</t>
+  </si>
+  <si>
+    <t>Low Gravity Room Ambience</t>
+  </si>
+  <si>
+    <t>Scrapyard Ambience</t>
+  </si>
+  <si>
+    <t>sfx_ambience_scrapyard</t>
+  </si>
+  <si>
+    <t>sfx_ambience_boss</t>
+  </si>
+  <si>
+    <t>Misc. Rooms</t>
+  </si>
+  <si>
+    <t>Scrapyard</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1190,8 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2263,10 +2296,13 @@
       </c>
       <c r="C58" s="10"/>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
+        <v>158</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
       </c>
       <c r="M58" t="s">
         <v>69</v>
@@ -2280,8 +2316,14 @@
         <v>56</v>
       </c>
       <c r="C59" s="10"/>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
       <c r="E59" t="s">
         <v>144</v>
+      </c>
+      <c r="I59" t="s">
+        <v>156</v>
       </c>
       <c r="M59" t="s">
         <v>70</v>
@@ -2295,8 +2337,14 @@
         <v>57</v>
       </c>
       <c r="C60" s="10"/>
+      <c r="D60" t="s">
+        <v>162</v>
+      </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="I60" t="s">
+        <v>153</v>
       </c>
       <c r="M60" t="s">
         <v>71</v>
@@ -2310,6 +2358,15 @@
         <v>58</v>
       </c>
       <c r="C61" s="10"/>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="I61" t="s">
+        <v>160</v>
+      </c>
       <c r="M61" t="s">
         <v>72</v>
       </c>
@@ -2322,8 +2379,14 @@
         <v>59</v>
       </c>
       <c r="C62" s="10"/>
+      <c r="D62" t="s">
+        <v>155</v>
+      </c>
       <c r="E62" t="s">
         <v>145</v>
+      </c>
+      <c r="I62" t="s">
+        <v>161</v>
       </c>
       <c r="M62" t="s">
         <v>143</v>
@@ -2344,7 +2407,7 @@
         <v>70</v>
       </c>
       <c r="I63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M63" t="s">
         <v>144</v>
@@ -2362,13 +2425,13 @@
         <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>62</v>
       </c>
@@ -2380,10 +2443,13 @@
         <v>72</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="M65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -2398,7 +2464,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>64</v>
       </c>

--- a/Silent Space Audio Asset List.xlsx
+++ b/Silent Space Audio Asset List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wmii/Documents/GitHub/MetroidvaniaHorrorGame/Metroidvania Horror Unity Project Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429ACCEB-1AAA-7841-8511-9D56361E9F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE695521-40B6-8B4D-A960-8E8FDAE57E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52600" yWindow="7700" windowWidth="38520" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2987,7 +2987,7 @@
       <c r="B66">
         <v>63</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="15"/>
       <c r="D66" t="s">
         <v>239</v>
       </c>
